--- a/app/Views/reportTemplates/Financial_Report_Template.xlsx
+++ b/app/Views/reportTemplates/Financial_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="PAID ENTRIES" sheetId="1" r:id="rId1"/>
@@ -4754,9 +4754,9 @@
   </sheetPr>
   <dimension ref="B1:M338"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:M3"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9554,7 +9554,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14366,9 +14366,9 @@
   </sheetPr>
   <dimension ref="B1:M339"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:M3"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/Views/reportTemplates/Financial_Report_Template.xlsx
+++ b/app/Views/reportTemplates/Financial_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="PAID ENTRIES" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -339,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,16 +372,16 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,6 +417,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -438,6 +442,45 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
@@ -633,93 +676,93 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -758,7 +801,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -1225,93 +1268,93 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -1350,7 +1393,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -1817,132 +1860,93 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -2392,59 +2396,59 @@
     <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="47"/>
     <tableColumn id="3" name="PROFORMA NO." dataDxfId="46"/>
     <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="45"/>
-    <tableColumn id="13" name="LPO NO." dataDxfId="44"/>
-    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="43"/>
-    <tableColumn id="6" name="VAT" dataDxfId="42"/>
-    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="CLEARED" dataDxfId="40"/>
-    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="39"/>
-    <tableColumn id="10" name="CAR REG NO" dataDxfId="38"/>
-    <tableColumn id="11" name="PHONE" dataDxfId="37"/>
-    <tableColumn id="12" name="DATE" dataDxfId="36"/>
+    <tableColumn id="13" name="LPO NO." dataDxfId="0"/>
+    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="44"/>
+    <tableColumn id="6" name="VAT" dataDxfId="43"/>
+    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="CLEARED" dataDxfId="41"/>
+    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="40"/>
+    <tableColumn id="10" name="CAR REG NO" dataDxfId="39"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="38"/>
+    <tableColumn id="12" name="DATE" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B7:N8" insertRow="1" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B7:N8" insertRow="1" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="B7:N8"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="SN #" dataDxfId="30"/>
-    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="29"/>
-    <tableColumn id="3" name="PROFORMA NO." dataDxfId="28"/>
-    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="27"/>
-    <tableColumn id="13" name="LPO NO." dataDxfId="26"/>
-    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="25"/>
-    <tableColumn id="6" name="VAT" dataDxfId="24"/>
-    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="UNCLEARED" dataDxfId="22"/>
-    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="21"/>
-    <tableColumn id="10" name="CAR REG NO" dataDxfId="20"/>
-    <tableColumn id="11" name="PHONE" dataDxfId="19"/>
-    <tableColumn id="12" name="DATE" dataDxfId="18"/>
+    <tableColumn id="1" name="SN #" dataDxfId="31"/>
+    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="30"/>
+    <tableColumn id="3" name="PROFORMA NO." dataDxfId="29"/>
+    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="28"/>
+    <tableColumn id="13" name="LPO NO." dataDxfId="27"/>
+    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="26"/>
+    <tableColumn id="6" name="VAT" dataDxfId="25"/>
+    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="UNCLEARED" dataDxfId="23"/>
+    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="22"/>
+    <tableColumn id="10" name="CAR REG NO" dataDxfId="21"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="20"/>
+    <tableColumn id="12" name="DATE" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B7:N8" insertRow="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B7:N8" insertRow="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B7:N8"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="SN #" dataDxfId="12"/>
-    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="11"/>
-    <tableColumn id="3" name="PROFORMA NO." dataDxfId="10"/>
-    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="9"/>
-    <tableColumn id="13" name="LPO NO." dataDxfId="8"/>
-    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="7"/>
-    <tableColumn id="6" name="VAT" dataDxfId="6"/>
-    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="UNCLEARED" dataDxfId="4"/>
-    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="3"/>
-    <tableColumn id="10" name="CAR REG NO" dataDxfId="2"/>
-    <tableColumn id="11" name="PHONE" dataDxfId="1"/>
-    <tableColumn id="12" name="DATE" dataDxfId="0"/>
+    <tableColumn id="1" name="SN #" dataDxfId="13"/>
+    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="12"/>
+    <tableColumn id="3" name="PROFORMA NO." dataDxfId="11"/>
+    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="10"/>
+    <tableColumn id="13" name="LPO NO." dataDxfId="9"/>
+    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="8"/>
+    <tableColumn id="6" name="VAT" dataDxfId="7"/>
+    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="UNCLEARED" dataDxfId="5"/>
+    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="4"/>
+    <tableColumn id="10" name="CAR REG NO" dataDxfId="3"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="2"/>
+    <tableColumn id="12" name="DATE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2779,8 +2783,8 @@
   </sheetPr>
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,18 +2922,18 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="12"/>
     </row>
   </sheetData>
@@ -2962,8 +2966,8 @@
   </sheetPr>
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:N28"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" activeCellId="2" sqref="G8 H8 I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,18 +3105,18 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="12"/>
     </row>
   </sheetData>
@@ -3145,8 +3149,8 @@
   </sheetPr>
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:N28"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,18 +3288,18 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="12"/>
     </row>
   </sheetData>
